--- a/Results/K15/Schaefer214/SuppTable3.xlsx
+++ b/Results/K15/Schaefer214/SuppTable3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="14">
   <si>
     <t>Row</t>
   </si>
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -111,11 +111,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -143,6 +147,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,21 +170,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -190,7 +198,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -204,7 +212,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -218,7 +226,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -232,7 +240,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -246,7 +254,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -260,7 +268,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -274,7 +282,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -288,7 +296,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -302,7 +310,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B11">

--- a/Results/K15/Schaefer214/SuppTable3.xlsx
+++ b/Results/K15/Schaefer214/SuppTable3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
   <si>
     <t>Row</t>
   </si>
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -115,11 +115,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -151,6 +153,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,21 +174,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -198,7 +202,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -212,7 +216,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -226,7 +230,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -240,7 +244,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -254,7 +258,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -268,7 +272,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -282,7 +286,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -296,7 +300,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -310,7 +314,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B11">
